--- a/Code/Results/Cases/Case_9_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9262051434751584</v>
+        <v>0.8839627842676805</v>
       </c>
       <c r="C2">
-        <v>0.1984532280633253</v>
+        <v>0.1809607590444173</v>
       </c>
       <c r="D2">
-        <v>0.08330751948835058</v>
+        <v>0.08559957511030092</v>
       </c>
       <c r="E2">
-        <v>0.07880693562237617</v>
+        <v>0.07471674967968589</v>
       </c>
       <c r="F2">
-        <v>0.4636876854617782</v>
+        <v>0.4358846219280821</v>
       </c>
       <c r="G2">
-        <v>0.3661762762030918</v>
+        <v>0.3217393255215484</v>
       </c>
       <c r="H2">
-        <v>0.004045680714786115</v>
+        <v>0.003288286968949561</v>
       </c>
       <c r="I2">
-        <v>0.004034690492851212</v>
+        <v>0.002986458122339997</v>
       </c>
       <c r="J2">
-        <v>0.3281185808036398</v>
+        <v>0.3398775665128113</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1729741671310698</v>
       </c>
       <c r="M2">
-        <v>0.7734308930558313</v>
+        <v>0.1063031516502626</v>
       </c>
       <c r="N2">
-        <v>0.1572353847326227</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2044027582007999</v>
+        <v>0.7781520302977611</v>
       </c>
       <c r="P2">
-        <v>0.9329093368583035</v>
+        <v>0.1662974684699989</v>
       </c>
       <c r="Q2">
-        <v>1.410561895607259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1999375655163256</v>
+      </c>
+      <c r="R2">
+        <v>0.9057116226473276</v>
+      </c>
+      <c r="S2">
+        <v>1.314822225766108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8074135697091265</v>
+        <v>0.7736897928085682</v>
       </c>
       <c r="C3">
-        <v>0.1935393094621105</v>
+        <v>0.1737300203534886</v>
       </c>
       <c r="D3">
-        <v>0.07468795288441754</v>
+        <v>0.0761941830378845</v>
       </c>
       <c r="E3">
-        <v>0.0749969486439781</v>
+        <v>0.07150216656524755</v>
       </c>
       <c r="F3">
-        <v>0.4441302651790693</v>
+        <v>0.4192737165533345</v>
       </c>
       <c r="G3">
-        <v>0.3552849363728541</v>
+        <v>0.3144985698408576</v>
       </c>
       <c r="H3">
-        <v>0.005480400237576843</v>
+        <v>0.00449872301226717</v>
       </c>
       <c r="I3">
-        <v>0.005393836889520998</v>
+        <v>0.003986357746164959</v>
       </c>
       <c r="J3">
-        <v>0.3266902562270459</v>
+        <v>0.3374113360814377</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1771357408810701</v>
       </c>
       <c r="M3">
-        <v>0.6770251660225455</v>
+        <v>0.1041480385378275</v>
       </c>
       <c r="N3">
-        <v>0.1408560904784011</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1791590261128952</v>
+        <v>0.6814121066352072</v>
       </c>
       <c r="P3">
-        <v>0.9601766487586154</v>
+        <v>0.1492769845691271</v>
       </c>
       <c r="Q3">
-        <v>1.384229985668554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1755505362764929</v>
+      </c>
+      <c r="R3">
+        <v>0.9302956289974151</v>
+      </c>
+      <c r="S3">
+        <v>1.296634795552819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.734118255868907</v>
+        <v>0.7054592364297037</v>
       </c>
       <c r="C4">
-        <v>0.190493771874312</v>
+        <v>0.1693193743130408</v>
       </c>
       <c r="D4">
-        <v>0.06939057576285279</v>
+        <v>0.07042686180500368</v>
       </c>
       <c r="E4">
-        <v>0.07262395454955595</v>
+        <v>0.06949101518183731</v>
       </c>
       <c r="F4">
-        <v>0.4324868200676732</v>
+        <v>0.4093541077733818</v>
       </c>
       <c r="G4">
-        <v>0.3488802926895502</v>
+        <v>0.3103360965027591</v>
       </c>
       <c r="H4">
-        <v>0.006509036023974596</v>
+        <v>0.005369977987827235</v>
       </c>
       <c r="I4">
-        <v>0.006406465423848484</v>
+        <v>0.004752270419822402</v>
       </c>
       <c r="J4">
-        <v>0.3260208258240169</v>
+        <v>0.3359606217451727</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1797593381610731</v>
       </c>
       <c r="M4">
-        <v>0.6177077223261165</v>
+        <v>0.1033462011922719</v>
       </c>
       <c r="N4">
-        <v>0.1308148755178919</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1636196347234957</v>
+        <v>0.6218770135333216</v>
       </c>
       <c r="P4">
-        <v>0.9774802729475969</v>
+        <v>0.1388597336898911</v>
       </c>
       <c r="Q4">
-        <v>1.369088909325271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1605187125433609</v>
+      </c>
+      <c r="R4">
+        <v>0.9459766929311701</v>
+      </c>
+      <c r="S4">
+        <v>1.286235375306092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7034762638098471</v>
+        <v>0.6768547017435367</v>
       </c>
       <c r="C5">
-        <v>0.1893267022494634</v>
+        <v>0.1676436414177331</v>
       </c>
       <c r="D5">
-        <v>0.06728098696962803</v>
+        <v>0.06813015182968485</v>
       </c>
       <c r="E5">
-        <v>0.07160060870212348</v>
+        <v>0.06861608748521952</v>
       </c>
       <c r="F5">
-        <v>0.4275065523806489</v>
+        <v>0.4050644630116622</v>
       </c>
       <c r="G5">
-        <v>0.3460213527592231</v>
+        <v>0.3084074958819158</v>
       </c>
       <c r="H5">
-        <v>0.006967260431221117</v>
+        <v>0.005758941306477361</v>
       </c>
       <c r="I5">
-        <v>0.006942463604071136</v>
+        <v>0.005193354049392696</v>
       </c>
       <c r="J5">
-        <v>0.3256344457352327</v>
+        <v>0.3352188739753359</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1806917317432735</v>
       </c>
       <c r="M5">
-        <v>0.5935367808374963</v>
+        <v>0.1030756016937104</v>
       </c>
       <c r="N5">
-        <v>0.1267921210589336</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1572067621722262</v>
+        <v>0.5976152455273649</v>
       </c>
       <c r="P5">
-        <v>0.9846137747658954</v>
+        <v>0.1346890584311993</v>
       </c>
       <c r="Q5">
-        <v>1.362151086375718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1543089232989807</v>
+      </c>
+      <c r="R5">
+        <v>0.952484822350101</v>
+      </c>
+      <c r="S5">
+        <v>1.281204237378688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6975467119775374</v>
+        <v>0.6712787448585402</v>
       </c>
       <c r="C6">
-        <v>0.1892343466530129</v>
+        <v>0.1675090201338492</v>
       </c>
       <c r="D6">
-        <v>0.06699298931691544</v>
+        <v>0.0678128131657374</v>
       </c>
       <c r="E6">
-        <v>0.07137181192602249</v>
+        <v>0.06841418432111723</v>
       </c>
       <c r="F6">
-        <v>0.4262889917959498</v>
+        <v>0.4039715833419777</v>
       </c>
       <c r="G6">
-        <v>0.3451628401083582</v>
+        <v>0.3077241793960752</v>
       </c>
       <c r="H6">
-        <v>0.007049375708902128</v>
+        <v>0.005828835736203186</v>
       </c>
       <c r="I6">
-        <v>0.007139138239198317</v>
+        <v>0.005390032570636194</v>
       </c>
       <c r="J6">
-        <v>0.3253720907280879</v>
+        <v>0.3348935036895071</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1806602900134102</v>
       </c>
       <c r="M6">
-        <v>0.5895646131856296</v>
+        <v>0.1029467618421371</v>
       </c>
       <c r="N6">
-        <v>0.1262053195310386</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1560556025763091</v>
+        <v>0.5936283412441838</v>
       </c>
       <c r="P6">
-        <v>0.9857394928907777</v>
+        <v>0.1340789677865004</v>
       </c>
       <c r="Q6">
-        <v>1.359770057383017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1531921184325817</v>
+      </c>
+      <c r="R6">
+        <v>0.9535435149072065</v>
+      </c>
+      <c r="S6">
+        <v>1.279183193706885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7314145448176816</v>
+        <v>0.702405355414669</v>
       </c>
       <c r="C7">
-        <v>0.1907587611062667</v>
+        <v>0.1696022872528005</v>
       </c>
       <c r="D7">
-        <v>0.06953325843418412</v>
+        <v>0.07068097956125285</v>
       </c>
       <c r="E7">
-        <v>0.07245104088536714</v>
+        <v>0.06934076389640076</v>
       </c>
       <c r="F7">
-        <v>0.4313384748550604</v>
+        <v>0.4076143741902882</v>
       </c>
       <c r="G7">
-        <v>0.3477827130801714</v>
+        <v>0.3116437302125874</v>
       </c>
       <c r="H7">
-        <v>0.006525062029754031</v>
+        <v>0.005387877070120783</v>
       </c>
       <c r="I7">
-        <v>0.006684512151911015</v>
+        <v>0.005075424918668858</v>
       </c>
       <c r="J7">
-        <v>0.3254668533735909</v>
+        <v>0.3319524640899658</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1790980318603097</v>
       </c>
       <c r="M7">
-        <v>0.6175009952235513</v>
+        <v>0.1029856026492535</v>
       </c>
       <c r="N7">
-        <v>0.130982567024688</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1632985694701965</v>
+        <v>0.6210959232563482</v>
       </c>
       <c r="P7">
-        <v>0.9774053562547715</v>
+        <v>0.13901074746245</v>
       </c>
       <c r="Q7">
-        <v>1.365600493904523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1601322731701131</v>
+      </c>
+      <c r="R7">
+        <v>0.9459831515416219</v>
+      </c>
+      <c r="S7">
+        <v>1.280954626755857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8822584591801217</v>
+        <v>0.8416302200866994</v>
       </c>
       <c r="C8">
-        <v>0.1971503587655086</v>
+        <v>0.1787108578639689</v>
       </c>
       <c r="D8">
-        <v>0.08056550934692552</v>
+        <v>0.08296078996593792</v>
       </c>
       <c r="E8">
-        <v>0.07729064886584069</v>
+        <v>0.07346581980978506</v>
       </c>
       <c r="F8">
-        <v>0.4554380805487526</v>
+        <v>0.4266219464242695</v>
       </c>
       <c r="G8">
-        <v>0.3609631825770023</v>
+        <v>0.3256873429844873</v>
       </c>
       <c r="H8">
-        <v>0.004519271250009393</v>
+        <v>0.003697485514673027</v>
       </c>
       <c r="I8">
-        <v>0.004791531453498976</v>
+        <v>0.003689252850374025</v>
       </c>
       <c r="J8">
-        <v>0.326861595067669</v>
+        <v>0.3271132228704303</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1732736546490798</v>
       </c>
       <c r="M8">
-        <v>0.7403722389901759</v>
+        <v>0.1046990309679359</v>
       </c>
       <c r="N8">
-        <v>0.1518808223045909</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1953933951933138</v>
+        <v>0.7430559723832317</v>
       </c>
       <c r="P8">
-        <v>0.9420240138909186</v>
+        <v>0.1606657087744807</v>
       </c>
       <c r="Q8">
-        <v>1.396792190152141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1909945736707748</v>
+      </c>
+      <c r="R8">
+        <v>0.9140900532687724</v>
+      </c>
+      <c r="S8">
+        <v>1.297680665054642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.179433872610133</v>
+        <v>1.116111962405171</v>
       </c>
       <c r="C9">
-        <v>0.2089804894662279</v>
+        <v>0.1964348711374484</v>
       </c>
       <c r="D9">
-        <v>0.1018761047837202</v>
+        <v>0.10641036576326</v>
       </c>
       <c r="E9">
-        <v>0.08680395780520023</v>
+        <v>0.08148120705523176</v>
       </c>
       <c r="F9">
-        <v>0.5076948904618135</v>
+        <v>0.4704220991421337</v>
       </c>
       <c r="G9">
-        <v>0.3910774056662447</v>
+        <v>0.3488145327157142</v>
       </c>
       <c r="H9">
-        <v>0.001805338804245049</v>
+        <v>0.001424487867025981</v>
       </c>
       <c r="I9">
-        <v>0.002147841281464835</v>
+        <v>0.001734301384442638</v>
       </c>
       <c r="J9">
-        <v>0.3322719513879449</v>
+        <v>0.3312549909543492</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1638258237095798</v>
       </c>
       <c r="M9">
-        <v>0.980278924897334</v>
+        <v>0.1130964817983227</v>
       </c>
       <c r="N9">
-        <v>0.1926302865879919</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2584684874561169</v>
+        <v>0.9831296592179797</v>
       </c>
       <c r="P9">
-        <v>0.8774357580107015</v>
+        <v>0.2030929992304991</v>
       </c>
       <c r="Q9">
-        <v>1.472552661049718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2517497633597436</v>
+      </c>
+      <c r="R9">
+        <v>0.8563726700965688</v>
+      </c>
+      <c r="S9">
+        <v>1.349755160904039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.387285625813519</v>
+        <v>1.305037531206892</v>
       </c>
       <c r="C10">
-        <v>0.2188966740470093</v>
+        <v>0.2108699729503911</v>
       </c>
       <c r="D10">
-        <v>0.1185301050612111</v>
+        <v>0.1253461780322738</v>
       </c>
       <c r="E10">
-        <v>0.09022816947785728</v>
+        <v>0.08413461104872511</v>
       </c>
       <c r="F10">
-        <v>0.542508474874154</v>
+        <v>0.495589257438823</v>
       </c>
       <c r="G10">
-        <v>0.4093075650390432</v>
+        <v>0.3767144917175216</v>
       </c>
       <c r="H10">
-        <v>0.00089717389831101</v>
+        <v>0.0007233728944173734</v>
       </c>
       <c r="I10">
-        <v>0.001355558780781863</v>
+        <v>0.001319198098257424</v>
       </c>
       <c r="J10">
-        <v>0.3345533963549627</v>
+        <v>0.3140964897832319</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1550719812792707</v>
       </c>
       <c r="M10">
-        <v>1.156887828554744</v>
+        <v>0.1193622011775552</v>
       </c>
       <c r="N10">
-        <v>0.2118937473670712</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2981726404237008</v>
+        <v>1.156221369714359</v>
       </c>
       <c r="P10">
-        <v>0.8330277104319883</v>
+        <v>0.2232249344858275</v>
       </c>
       <c r="Q10">
-        <v>1.516375570355166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2894058439608926</v>
+      </c>
+      <c r="R10">
+        <v>0.8184013692856453</v>
+      </c>
+      <c r="S10">
+        <v>1.366105842842785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.410180304543275</v>
+        <v>1.325126933158231</v>
       </c>
       <c r="C11">
-        <v>0.2363296468609093</v>
+        <v>0.2321591423118292</v>
       </c>
       <c r="D11">
-        <v>0.1344173884350823</v>
+        <v>0.1432445605153987</v>
       </c>
       <c r="E11">
-        <v>0.06804225714805234</v>
+        <v>0.0637299045374764</v>
       </c>
       <c r="F11">
-        <v>0.5126718588478667</v>
+        <v>0.4612085724748951</v>
       </c>
       <c r="G11">
-        <v>0.3736662859866229</v>
+        <v>0.3741008083139121</v>
       </c>
       <c r="H11">
-        <v>0.01953845505207497</v>
+        <v>0.01938048139389181</v>
       </c>
       <c r="I11">
-        <v>0.001735031540040843</v>
+        <v>0.001879912121817817</v>
       </c>
       <c r="J11">
-        <v>0.3132823391819741</v>
+        <v>0.2646643252390035</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1395449620745399</v>
       </c>
       <c r="M11">
-        <v>1.242446705411339</v>
+        <v>0.1082551986287257</v>
       </c>
       <c r="N11">
-        <v>0.1372352006253053</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2621123359578341</v>
+        <v>1.23359467157627</v>
       </c>
       <c r="P11">
-        <v>0.8191919105274756</v>
+        <v>0.1459503770265087</v>
       </c>
       <c r="Q11">
-        <v>1.396437254114744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2533387242114067</v>
+      </c>
+      <c r="R11">
+        <v>0.81609068277454</v>
+      </c>
+      <c r="S11">
+        <v>1.236604747562325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.388598869438852</v>
+        <v>1.306827269324486</v>
       </c>
       <c r="C12">
-        <v>0.2516788823555984</v>
+        <v>0.2491578205413987</v>
       </c>
       <c r="D12">
-        <v>0.1445131047626802</v>
+        <v>0.1541337863970114</v>
       </c>
       <c r="E12">
-        <v>0.05612771254732873</v>
+        <v>0.05314595319832005</v>
       </c>
       <c r="F12">
-        <v>0.4819374606481048</v>
+        <v>0.4310758989996586</v>
       </c>
       <c r="G12">
-        <v>0.3422206632594609</v>
+        <v>0.3581638162022784</v>
       </c>
       <c r="H12">
-        <v>0.0583395193861449</v>
+        <v>0.05817472242330979</v>
       </c>
       <c r="I12">
-        <v>0.0017145925104467</v>
+        <v>0.001869917892279638</v>
       </c>
       <c r="J12">
-        <v>0.2959605773530143</v>
+        <v>0.2414787114328334</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1301875094567375</v>
       </c>
       <c r="M12">
-        <v>1.277442125904997</v>
+        <v>0.09885928494235685</v>
       </c>
       <c r="N12">
-        <v>0.08522260250039437</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.225898408538562</v>
+        <v>1.264463059218741</v>
       </c>
       <c r="P12">
-        <v>0.8225094382745191</v>
+        <v>0.09181629223821375</v>
       </c>
       <c r="Q12">
-        <v>1.293559978815679</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.217828077298563</v>
+      </c>
+      <c r="R12">
+        <v>0.8273416863023613</v>
+      </c>
+      <c r="S12">
+        <v>1.138826606477565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.328053778400744</v>
+        <v>1.255607894882132</v>
       </c>
       <c r="C13">
-        <v>0.2665147282616545</v>
+        <v>0.2647227788351358</v>
       </c>
       <c r="D13">
-        <v>0.1509043769273717</v>
+        <v>0.1599850597693973</v>
       </c>
       <c r="E13">
-        <v>0.05106514801765916</v>
+        <v>0.04920339634326609</v>
       </c>
       <c r="F13">
-        <v>0.44694449998088</v>
+        <v>0.4018806947830669</v>
       </c>
       <c r="G13">
-        <v>0.3104538576653653</v>
+        <v>0.3239400882488681</v>
       </c>
       <c r="H13">
-        <v>0.1142881462739638</v>
+        <v>0.1140905924191742</v>
       </c>
       <c r="I13">
-        <v>0.001756831065820919</v>
+        <v>0.001868993752298209</v>
       </c>
       <c r="J13">
-        <v>0.2797538761825464</v>
+        <v>0.2351798289004421</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1239285079840879</v>
       </c>
       <c r="M13">
-        <v>1.275405444573494</v>
+        <v>0.09011082015113558</v>
       </c>
       <c r="N13">
-        <v>0.04801277158346551</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.187326707252943</v>
+        <v>1.262933051826593</v>
       </c>
       <c r="P13">
-        <v>0.8381833881585337</v>
+        <v>0.05278904274830865</v>
       </c>
       <c r="Q13">
-        <v>1.192259529751666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1806046538740205</v>
+      </c>
+      <c r="R13">
+        <v>0.8469517336285648</v>
+      </c>
+      <c r="S13">
+        <v>1.05705644207687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.267643179255316</v>
+        <v>1.204287262964357</v>
       </c>
       <c r="C14">
-        <v>0.2771404474790415</v>
+        <v>0.2754594856391606</v>
       </c>
       <c r="D14">
-        <v>0.1537648662229856</v>
+        <v>0.1618374314820272</v>
       </c>
       <c r="E14">
-        <v>0.05154997451584808</v>
+        <v>0.05038659296146442</v>
       </c>
       <c r="F14">
-        <v>0.4204631650644259</v>
+        <v>0.3814826956742507</v>
       </c>
       <c r="G14">
-        <v>0.2881007410829355</v>
+        <v>0.2931371330411636</v>
       </c>
       <c r="H14">
-        <v>0.1638042282017551</v>
+        <v>0.1635694842874642</v>
       </c>
       <c r="I14">
-        <v>0.001912480751641965</v>
+        <v>0.00198159704333456</v>
       </c>
       <c r="J14">
-        <v>0.2688961928225879</v>
+        <v>0.2366762593991076</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1206724767106859</v>
       </c>
       <c r="M14">
-        <v>1.257230712561125</v>
+        <v>0.08436558856456244</v>
       </c>
       <c r="N14">
-        <v>0.03088698601847994</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1597654314894292</v>
+        <v>1.247159895317083</v>
       </c>
       <c r="P14">
-        <v>0.8552492281915391</v>
+        <v>0.03457043019399286</v>
       </c>
       <c r="Q14">
-        <v>1.122086648130662</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1541967137574716</v>
+      </c>
+      <c r="R14">
+        <v>0.864346091134955</v>
+      </c>
+      <c r="S14">
+        <v>1.005782081556688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.243940069925515</v>
+        <v>1.183950367971391</v>
       </c>
       <c r="C15">
-        <v>0.2794765509309798</v>
+        <v>0.2777589922422692</v>
       </c>
       <c r="D15">
-        <v>0.1536755902183842</v>
+        <v>0.1612377552638833</v>
       </c>
       <c r="E15">
-        <v>0.05217364235606592</v>
+        <v>0.05118304260766049</v>
       </c>
       <c r="F15">
-        <v>0.4127657263951789</v>
+        <v>0.3761610092677756</v>
       </c>
       <c r="G15">
-        <v>0.2821866935261923</v>
+        <v>0.2825039880408582</v>
       </c>
       <c r="H15">
-        <v>0.1763915785540746</v>
+        <v>0.1761382641824127</v>
       </c>
       <c r="I15">
-        <v>0.00209321473595292</v>
+        <v>0.00215964119882095</v>
       </c>
       <c r="J15">
-        <v>0.2662973288390873</v>
+        <v>0.2395611201344039</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1202230193009974</v>
       </c>
       <c r="M15">
-        <v>1.244904214105901</v>
+        <v>0.08297334584574934</v>
       </c>
       <c r="N15">
-        <v>0.02790278454114414</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1522634575746231</v>
+        <v>1.236293675438503</v>
       </c>
       <c r="P15">
-        <v>0.8614244385516017</v>
+        <v>0.03135938182480835</v>
       </c>
       <c r="Q15">
-        <v>1.104077578866864</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1470778887701307</v>
+      </c>
+      <c r="R15">
+        <v>0.8696696940487811</v>
+      </c>
+      <c r="S15">
+        <v>0.9947311089786126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.16693749796562</v>
+        <v>1.116833301806025</v>
       </c>
       <c r="C16">
-        <v>0.2717833681824402</v>
+        <v>0.2691863092305482</v>
       </c>
       <c r="D16">
-        <v>0.145050480636769</v>
+        <v>0.1504233535727906</v>
       </c>
       <c r="E16">
-        <v>0.05169799015127108</v>
+        <v>0.05079058725279495</v>
       </c>
       <c r="F16">
-        <v>0.404316680404925</v>
+        <v>0.3752739402947398</v>
       </c>
       <c r="G16">
-        <v>0.2802638964916468</v>
+        <v>0.2589454073511988</v>
       </c>
       <c r="H16">
-        <v>0.1640709365652953</v>
+        <v>0.1637157663162299</v>
       </c>
       <c r="I16">
-        <v>0.002535090080728608</v>
+        <v>0.002481476791946768</v>
       </c>
       <c r="J16">
-        <v>0.26820025895708</v>
+        <v>0.2644344113896011</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1240938867750021</v>
       </c>
       <c r="M16">
-        <v>1.168997351455147</v>
+        <v>0.08349259884572469</v>
       </c>
       <c r="N16">
-        <v>0.02822592578310612</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1440069971210072</v>
+        <v>1.167529869331332</v>
       </c>
       <c r="P16">
-        <v>0.8747563002023924</v>
+        <v>0.03188875440169525</v>
       </c>
       <c r="Q16">
-        <v>1.103818335363712</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1397751576169775</v>
+      </c>
+      <c r="R16">
+        <v>0.8754387787090394</v>
+      </c>
+      <c r="S16">
+        <v>1.014571860555634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.139742699432105</v>
+        <v>1.091788743827266</v>
       </c>
       <c r="C17">
-        <v>0.2600915394116612</v>
+        <v>0.256515658681991</v>
       </c>
       <c r="D17">
-        <v>0.1369417551144068</v>
+        <v>0.1414573847938811</v>
       </c>
       <c r="E17">
-        <v>0.05041901817854955</v>
+        <v>0.04917230276154116</v>
       </c>
       <c r="F17">
-        <v>0.4118778126237572</v>
+        <v>0.3847990703699651</v>
       </c>
       <c r="G17">
-        <v>0.2905622937129522</v>
+        <v>0.2594645964392299</v>
       </c>
       <c r="H17">
-        <v>0.1265269461924561</v>
+        <v>0.126112106508117</v>
       </c>
       <c r="I17">
-        <v>0.002828275375520661</v>
+        <v>0.002705973584832044</v>
       </c>
       <c r="J17">
-        <v>0.2754165559507911</v>
+        <v>0.2818538321984576</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.129073386012502</v>
       </c>
       <c r="M17">
-        <v>1.120587273841551</v>
+        <v>0.08664642778119536</v>
       </c>
       <c r="N17">
-        <v>0.03605765176100206</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1519035497416787</v>
+        <v>1.122255431052309</v>
       </c>
       <c r="P17">
-        <v>0.875987011884888</v>
+        <v>0.04041428249364998</v>
       </c>
       <c r="Q17">
-        <v>1.140658959084703</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1477814799146202</v>
+      </c>
+      <c r="R17">
+        <v>0.8720740072265727</v>
+      </c>
+      <c r="S17">
+        <v>1.055585157695532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.154036552924254</v>
+        <v>1.102837585106784</v>
       </c>
       <c r="C18">
-        <v>0.244513403963829</v>
+        <v>0.2397060471375738</v>
       </c>
       <c r="D18">
-        <v>0.1283622685628671</v>
+        <v>0.1327147702428846</v>
       </c>
       <c r="E18">
-        <v>0.05187535529550225</v>
+        <v>0.04980479066918375</v>
       </c>
       <c r="F18">
-        <v>0.4350307921245147</v>
+        <v>0.4065492973009839</v>
       </c>
       <c r="G18">
-        <v>0.3137974452956911</v>
+        <v>0.2762743538075156</v>
       </c>
       <c r="H18">
-        <v>0.07371461565458048</v>
+        <v>0.07328802987571237</v>
       </c>
       <c r="I18">
-        <v>0.002672135374842455</v>
+        <v>0.002480671618942054</v>
       </c>
       <c r="J18">
-        <v>0.2885934872105125</v>
+        <v>0.2984952570569988</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1363672441196009</v>
       </c>
       <c r="M18">
-        <v>1.090201685841663</v>
+        <v>0.09296012151628652</v>
       </c>
       <c r="N18">
-        <v>0.0588379496980096</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.176039174325556</v>
+        <v>1.093360398903883</v>
       </c>
       <c r="P18">
-        <v>0.8691091298467377</v>
+        <v>0.0645059076634098</v>
       </c>
       <c r="Q18">
-        <v>1.217454608739345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.171419899228642</v>
+      </c>
+      <c r="R18">
+        <v>0.8614093613805522</v>
+      </c>
+      <c r="S18">
+        <v>1.126586395437982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.196548795900441</v>
+        <v>1.138443230769184</v>
       </c>
       <c r="C19">
-        <v>0.2303399153649224</v>
+        <v>0.2241190599120273</v>
       </c>
       <c r="D19">
-        <v>0.1206488858005201</v>
+        <v>0.1252433454453552</v>
       </c>
       <c r="E19">
-        <v>0.06065561402324882</v>
+        <v>0.0572977040305549</v>
       </c>
       <c r="F19">
-        <v>0.4677879721008793</v>
+        <v>0.4357343133570453</v>
       </c>
       <c r="G19">
-        <v>0.3451203284417019</v>
+        <v>0.3024024306358868</v>
       </c>
       <c r="H19">
-        <v>0.02819397236601162</v>
+        <v>0.02780840315315913</v>
       </c>
       <c r="I19">
-        <v>0.002708597136663826</v>
+        <v>0.00256825162162766</v>
       </c>
       <c r="J19">
-        <v>0.3051574148950777</v>
+        <v>0.3145402195146616</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1449727817737081</v>
       </c>
       <c r="M19">
-        <v>1.076808627679753</v>
+        <v>0.1013577179313216</v>
       </c>
       <c r="N19">
-        <v>0.1037310073014979</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2132710096875314</v>
+        <v>1.080612889154338</v>
       </c>
       <c r="P19">
-        <v>0.8606530886146899</v>
+        <v>0.1113148921021647</v>
       </c>
       <c r="Q19">
-        <v>1.318532230566774</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2076890018071964</v>
+      </c>
+      <c r="R19">
+        <v>0.8493108797326876</v>
+      </c>
+      <c r="S19">
+        <v>1.215297372107813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.3251719194011</v>
+        <v>1.249830495446531</v>
       </c>
       <c r="C20">
-        <v>0.217376543740869</v>
+        <v>0.2090065714895175</v>
       </c>
       <c r="D20">
-        <v>0.114745888870651</v>
+        <v>0.1205578876049884</v>
       </c>
       <c r="E20">
-        <v>0.08871806341490363</v>
+        <v>0.08280819066774647</v>
       </c>
       <c r="F20">
-        <v>0.5296575534684322</v>
+        <v>0.487742325468659</v>
       </c>
       <c r="G20">
-        <v>0.4009393530527632</v>
+        <v>0.3572867589159401</v>
       </c>
       <c r="H20">
-        <v>0.001075961834605899</v>
+        <v>0.0008499348196453482</v>
       </c>
       <c r="I20">
-        <v>0.002315138173522691</v>
+        <v>0.00234322602234549</v>
       </c>
       <c r="J20">
-        <v>0.3321039648009503</v>
+        <v>0.328069643614775</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1566255639505592</v>
       </c>
       <c r="M20">
-        <v>1.110921373790575</v>
+        <v>0.1168533046199727</v>
       </c>
       <c r="N20">
-        <v>0.2070625087329034</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2867498699625344</v>
+        <v>1.113338737687656</v>
       </c>
       <c r="P20">
-        <v>0.8443889405890577</v>
+        <v>0.2182207388305386</v>
       </c>
       <c r="Q20">
-        <v>1.49340295541478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2788077864373477</v>
+      </c>
+      <c r="R20">
+        <v>0.8283056211597213</v>
+      </c>
+      <c r="S20">
+        <v>1.358035908579083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.49763065259009</v>
+        <v>1.397166538735263</v>
       </c>
       <c r="C21">
-        <v>0.2230729883974618</v>
+        <v>0.2158176115936854</v>
       </c>
       <c r="D21">
-        <v>0.1260732187173517</v>
+        <v>0.1359656380291483</v>
       </c>
       <c r="E21">
-        <v>0.09656772507169364</v>
+        <v>0.09000509425191972</v>
       </c>
       <c r="F21">
-        <v>0.5658296351059064</v>
+        <v>0.5033900906629469</v>
       </c>
       <c r="G21">
-        <v>0.4239833753005655</v>
+        <v>0.435500605579179</v>
       </c>
       <c r="H21">
-        <v>0.0002987465407382484</v>
+        <v>0.0002171693801964469</v>
       </c>
       <c r="I21">
-        <v>0.001841795312990335</v>
+        <v>0.00209230743328348</v>
       </c>
       <c r="J21">
-        <v>0.3385407204030741</v>
+        <v>0.2676273850461683</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.150252573559154</v>
       </c>
       <c r="M21">
-        <v>1.245473842321474</v>
+        <v>0.1221957520877908</v>
       </c>
       <c r="N21">
-        <v>0.2387359214636149</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3272051246360164</v>
+        <v>1.233818036949316</v>
       </c>
       <c r="P21">
-        <v>0.8113201336256957</v>
+        <v>0.2508127200364925</v>
       </c>
       <c r="Q21">
-        <v>1.556032701540573</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3159680947655019</v>
+      </c>
+      <c r="R21">
+        <v>0.8006988643143025</v>
+      </c>
+      <c r="S21">
+        <v>1.359391709728087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.609241832908737</v>
+        <v>1.491786484180835</v>
       </c>
       <c r="C22">
-        <v>0.226956617542605</v>
+        <v>0.2203710671439367</v>
       </c>
       <c r="D22">
-        <v>0.133708730480592</v>
+        <v>0.1465023837134964</v>
       </c>
       <c r="E22">
-        <v>0.1001792209457868</v>
+        <v>0.0933614916419927</v>
       </c>
       <c r="F22">
-        <v>0.5886998414669122</v>
+        <v>0.5119016348256906</v>
       </c>
       <c r="G22">
-        <v>0.4382091648533333</v>
+        <v>0.4943842442324922</v>
       </c>
       <c r="H22">
-        <v>8.260711998708814E-05</v>
+        <v>5.461201009415717E-05</v>
       </c>
       <c r="I22">
-        <v>0.001430883221750889</v>
+        <v>0.001708669631699244</v>
       </c>
       <c r="J22">
-        <v>0.3423712259808411</v>
+        <v>0.2340125950820386</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1458734521884502</v>
       </c>
       <c r="M22">
-        <v>1.333573529506396</v>
+        <v>0.1255245183842604</v>
       </c>
       <c r="N22">
-        <v>0.2535961832789724</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3507066049229124</v>
+        <v>1.311552417096379</v>
       </c>
       <c r="P22">
-        <v>0.7903459868701557</v>
+        <v>0.2660836849298676</v>
       </c>
       <c r="Q22">
-        <v>1.594400363414053</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3372338366176422</v>
+      </c>
+      <c r="R22">
+        <v>0.7839704006356563</v>
+      </c>
+      <c r="S22">
+        <v>1.355084553189698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.552487309122881</v>
+        <v>1.44521397116128</v>
       </c>
       <c r="C23">
-        <v>0.2244894067523759</v>
+        <v>0.2175967483761241</v>
       </c>
       <c r="D23">
-        <v>0.1294201325768114</v>
+        <v>0.1403251304830206</v>
       </c>
       <c r="E23">
-        <v>0.09843747667571634</v>
+        <v>0.09169237840019306</v>
       </c>
       <c r="F23">
-        <v>0.5777138147608269</v>
+        <v>0.510178960995475</v>
       </c>
       <c r="G23">
-        <v>0.4318131342287046</v>
+        <v>0.4564652151980226</v>
       </c>
       <c r="H23">
-        <v>0.0001792645136422522</v>
+        <v>0.0001253846780089329</v>
       </c>
       <c r="I23">
-        <v>0.001319607816122392</v>
+        <v>0.001524817918198806</v>
       </c>
       <c r="J23">
-        <v>0.3409330343803418</v>
+        <v>0.2569105725426155</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1488413417629779</v>
       </c>
       <c r="M23">
-        <v>1.286408766195024</v>
+        <v>0.1245497870243355</v>
       </c>
       <c r="N23">
-        <v>0.2453871224858943</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3384499093305564</v>
+        <v>1.271532239356162</v>
       </c>
       <c r="P23">
-        <v>0.8014878895680742</v>
+        <v>0.2576901347486711</v>
       </c>
       <c r="Q23">
-        <v>1.577729532971375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3263664145045624</v>
+      </c>
+      <c r="R23">
+        <v>0.7922898619531544</v>
+      </c>
+      <c r="S23">
+        <v>1.365892883605085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.332709496211947</v>
+        <v>1.256628307441673</v>
       </c>
       <c r="C24">
-        <v>0.2157903778295491</v>
+        <v>0.2068140825607685</v>
       </c>
       <c r="D24">
-        <v>0.1135430411737772</v>
+        <v>0.1193295717018117</v>
       </c>
       <c r="E24">
-        <v>0.09151108384236473</v>
+        <v>0.08540060411174011</v>
       </c>
       <c r="F24">
-        <v>0.5351032013448318</v>
+        <v>0.4927932248423872</v>
       </c>
       <c r="G24">
-        <v>0.4064310714949215</v>
+        <v>0.3617785114303018</v>
       </c>
       <c r="H24">
-        <v>0.0009089714428314188</v>
+        <v>0.0006895181541858308</v>
       </c>
       <c r="I24">
-        <v>0.001799834825610525</v>
+        <v>0.001731246959375987</v>
       </c>
       <c r="J24">
-        <v>0.3349857439151265</v>
+        <v>0.3312144146227283</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1583875111012993</v>
       </c>
       <c r="M24">
-        <v>1.1080671095593</v>
+        <v>0.1185455138361817</v>
       </c>
       <c r="N24">
-        <v>0.2148273387916362</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2915698723935947</v>
+        <v>1.110628464007021</v>
       </c>
       <c r="P24">
-        <v>0.844927672224447</v>
+        <v>0.2262350217166329</v>
       </c>
       <c r="Q24">
-        <v>1.511076622794008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2835170174412767</v>
+      </c>
+      <c r="R24">
+        <v>0.8279170767294062</v>
+      </c>
+      <c r="S24">
+        <v>1.374156564839936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.09510177464054</v>
+        <v>1.038819220593524</v>
       </c>
       <c r="C25">
-        <v>0.2063530310645305</v>
+        <v>0.1925669797529466</v>
       </c>
       <c r="D25">
-        <v>0.09642668341005844</v>
+        <v>0.1002206967346524</v>
       </c>
       <c r="E25">
-        <v>0.08397294217157913</v>
+        <v>0.0790520749063699</v>
       </c>
       <c r="F25">
-        <v>0.4912579061949316</v>
+        <v>0.4573321851620662</v>
       </c>
       <c r="G25">
-        <v>0.3807556713831701</v>
+        <v>0.3370926321179368</v>
       </c>
       <c r="H25">
-        <v>0.002408290121151513</v>
+        <v>0.001922922315447106</v>
       </c>
       <c r="I25">
-        <v>0.003151413146384563</v>
+        <v>0.002655115766274641</v>
       </c>
       <c r="J25">
-        <v>0.329642555668606</v>
+        <v>0.3338429031178904</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1658209875578684</v>
       </c>
       <c r="M25">
-        <v>0.9156586442368564</v>
+        <v>0.109939302059054</v>
       </c>
       <c r="N25">
-        <v>0.1819925241964526</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2409988673577033</v>
+        <v>0.9193225974362917</v>
       </c>
       <c r="P25">
-        <v>0.8942662637988388</v>
+        <v>0.1920186978205862</v>
       </c>
       <c r="Q25">
-        <v>1.445010669745997</v>
+        <v>0.2350348807277527</v>
+      </c>
+      <c r="R25">
+        <v>0.871526771542376</v>
+      </c>
+      <c r="S25">
+        <v>1.331950064260695</v>
       </c>
     </row>
   </sheetData>
